--- a/project/station_dashboards/test/Test_NearestPump_map_input.xlsx
+++ b/project/station_dashboards/test/Test_NearestPump_map_input.xlsx
@@ -1081,11 +1081,7 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>MORRISONS</t>
